--- a/output/kruskal_wallis_test/anova_Q19_Gênero.xlsx
+++ b/output/kruskal_wallis_test/anova_Q19_Gênero.xlsx
@@ -365,13 +365,13 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>8.62482011736641</v>
+        <v>8.88371949402124</v>
       </c>
       <c r="B2" t="n">
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>0.00331613185277961</v>
+        <v>0.00287724770484922</v>
       </c>
     </row>
   </sheetData>
